--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_4_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_4_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.89000000000045</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.625929269271486e-16</v>
+        <v>5.921189464667501e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>40.91654208756584</v>
+        <v>38.4061039869934</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[32.06211175176261, 49.77097242336908]</t>
+          <t>[28.87151546592672, 47.94069250806008]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.062616992290714e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.012523398458143e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.704447665911579</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.452868674633117, 1.9560266571900415]</t>
+          <t>[1.50318447288881, 2.0315003545735806]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.60719534983883</v>
+        <v>58.65628655812257</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.97488168576811, 65.23950901390955]</t>
+          <t>[53.15005027805162, 64.16252283819352]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.13805805805839</v>
+        <v>18.17639639639676</v>
       </c>
       <c r="X2" t="n">
-        <v>17.14146146146177</v>
+        <v>17.1131531531535</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.13465465465501</v>
+        <v>19.23963963964003</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.54000000000024</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.836176528659863e-07</v>
+        <v>1.474677047141881e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>8.728218287155315e-07</v>
+        <v>4.340052234734469e-10</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>32.49649091493655</v>
+        <v>43.98535132898458</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[17.723150026524316, 47.26983180334879]</t>
+          <t>[29.204441836134386, 58.76626082183477]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.609277356357964e-05</v>
+        <v>2.798461706809974e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.609277356357964e-05</v>
+        <v>2.798461706809974e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4654211338651546</v>
+        <v>-1.811368737204925</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.9560001668581553, 0.02515789912784605]</t>
+          <t>[-2.201316173686541, -1.4214213007233099]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.06278475119822957</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06278475119822957</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S3" t="n">
-        <v>60.17002223931286</v>
+        <v>53.44097468556694</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.19647971940414, 68.14356475922159]</t>
+          <t>[44.93770910568532, 61.94424026544855]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.743703703703723</v>
+        <v>6.58450450450454</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.09425425425425371</v>
+        <v>5.167007007007036</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.581661661661699</v>
+        <v>8.002002002002044</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_4_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_4_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.29000000000051</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,32 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.921189464667501e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>3.301778511896377e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4071919570816487</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>38.4061039869934</v>
+        <v>49.36129952411099</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[28.87151546592672, 47.94069250806008]</t>
+          <t>[40.3504092286169, 58.37218981960508]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.062616992290714e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.012523398458143e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.767342413731195</v>
+        <v>1.377394977249579</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.50318447288881, 2.0315003545735806]</t>
+          <t>[1.1761317842268095, 1.5786581702723481]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.65628655812257</v>
+        <v>61.71682308686695</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.15005027805162, 64.16252283819352]</t>
+          <t>[56.208875026487945, 67.22477114724595]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.17639639639676</v>
+        <v>19.32432432432466</v>
       </c>
       <c r="X2" t="n">
-        <v>17.1131531531535</v>
+        <v>18.53153153153185</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.23963963964003</v>
+        <v>20.11711711711747</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.84000000000013</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.474677047141881e-10</v>
+        <v>5.580758077883274e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>4.340052234734469e-10</v>
+        <v>1.353863053412039e-11</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>43.98535132898458</v>
+        <v>42.69338811610531</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[29.204441836134386, 58.76626082183477]</t>
+          <t>[30.147705835133358, 55.23907039707726]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.798461706809974e-08</v>
+        <v>3.992584041156988e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>2.798461706809974e-08</v>
+        <v>3.992584041156988e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.811368737204925</v>
+        <v>-1.434000250287233</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.201316173686541, -1.4214213007233099]</t>
+          <t>[-1.7610529389492333, -1.1069475616252324]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>9.325873406851315e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>9.325873406851315e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>53.44097468556694</v>
+        <v>57.89619058446264</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[44.93770910568532, 61.94424026544855]</t>
+          <t>[50.24384203343744, 65.54853913548786]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.58450450450454</v>
+        <v>5.294894894894938</v>
       </c>
       <c r="X3" t="n">
-        <v>5.167007007007036</v>
+        <v>4.087287287287321</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.002002002002044</v>
+        <v>6.502502502502555</v>
       </c>
     </row>
   </sheetData>
